--- a/_Out/Server/NFDataCfg/Excel_Ini/InitProperty.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/InitProperty.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,13 @@
   </si>
   <si>
     <t>PlayerAtt3</t>
+  </si>
+  <si>
+    <t>SkillIDRef</t>
+  </si>
+  <si>
+    <t>ModelPtah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -328,9 +335,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D61" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:D61"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F61" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F61"/>
+  <tableColumns count="6">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
@@ -343,6 +350,8 @@
     <tableColumn id="4" uniqueName="EffectData" name="EffectData">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@EffectData" xmlDataType="string"/>
     </tableColumn>
+    <tableColumn id="5" uniqueName="5" name="SkillIDRef"/>
+    <tableColumn id="6" uniqueName="6" name="ModelPtah"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -611,19 +620,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +649,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -651,7 +670,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,7 +684,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -679,7 +698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -691,7 +710,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -703,7 +722,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -715,7 +734,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -727,7 +746,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -739,7 +758,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -751,7 +770,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -763,7 +782,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -775,7 +794,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -787,7 +806,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -799,7 +818,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -811,7 +830,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>

--- a/_Out/Server/NFDataCfg/Excel_Ini/InitProperty.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/InitProperty.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,177 @@
   <si>
     <t>ModelPtah</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerAtt4</t>
+  </si>
+  <si>
+    <t>PlayerAtt5</t>
+  </si>
+  <si>
+    <t>PlayerAtt6</t>
+  </si>
+  <si>
+    <t>PlayerAtt7</t>
+  </si>
+  <si>
+    <t>PlayerAtt8</t>
+  </si>
+  <si>
+    <t>PlayerAtt9</t>
+  </si>
+  <si>
+    <t>PlayerAtt10</t>
+  </si>
+  <si>
+    <t>PlayerAtt11</t>
+  </si>
+  <si>
+    <t>PlayerAtt12</t>
+  </si>
+  <si>
+    <t>PlayerAtt13</t>
+  </si>
+  <si>
+    <t>PlayerAtt14</t>
+  </si>
+  <si>
+    <t>PlayerAtt15</t>
+  </si>
+  <si>
+    <t>PlayerAtt16</t>
+  </si>
+  <si>
+    <t>PlayerAtt17</t>
+  </si>
+  <si>
+    <t>PlayerAtt18</t>
+  </si>
+  <si>
+    <t>PlayerAtt19</t>
+  </si>
+  <si>
+    <t>PlayerAtt20</t>
+  </si>
+  <si>
+    <t>PlayerAtt21</t>
+  </si>
+  <si>
+    <t>PlayerAtt22</t>
+  </si>
+  <si>
+    <t>PlayerAtt23</t>
+  </si>
+  <si>
+    <t>PlayerAtt24</t>
+  </si>
+  <si>
+    <t>PlayerAtt25</t>
+  </si>
+  <si>
+    <t>PlayerAtt26</t>
+  </si>
+  <si>
+    <t>PlayerAtt27</t>
+  </si>
+  <si>
+    <t>PlayerAtt28</t>
+  </si>
+  <si>
+    <t>PlayerAtt29</t>
+  </si>
+  <si>
+    <t>PlayerAtt30</t>
+  </si>
+  <si>
+    <t>PlayerAtt31</t>
+  </si>
+  <si>
+    <t>PlayerAtt32</t>
+  </si>
+  <si>
+    <t>PlayerAtt33</t>
+  </si>
+  <si>
+    <t>PlayerAtt34</t>
+  </si>
+  <si>
+    <t>PlayerAtt35</t>
+  </si>
+  <si>
+    <t>PlayerAtt36</t>
+  </si>
+  <si>
+    <t>PlayerAtt37</t>
+  </si>
+  <si>
+    <t>PlayerAtt38</t>
+  </si>
+  <si>
+    <t>PlayerAtt39</t>
+  </si>
+  <si>
+    <t>PlayerAtt40</t>
+  </si>
+  <si>
+    <t>PlayerAtt41</t>
+  </si>
+  <si>
+    <t>PlayerAtt42</t>
+  </si>
+  <si>
+    <t>PlayerAtt43</t>
+  </si>
+  <si>
+    <t>PlayerAtt44</t>
+  </si>
+  <si>
+    <t>PlayerAtt45</t>
+  </si>
+  <si>
+    <t>PlayerAtt46</t>
+  </si>
+  <si>
+    <t>PlayerAtt47</t>
+  </si>
+  <si>
+    <t>PlayerAtt48</t>
+  </si>
+  <si>
+    <t>PlayerAtt49</t>
+  </si>
+  <si>
+    <t>PlayerAtt50</t>
+  </si>
+  <si>
+    <t>PlayerAtt51</t>
+  </si>
+  <si>
+    <t>PlayerAtt52</t>
+  </si>
+  <si>
+    <t>PlayerAtt53</t>
+  </si>
+  <si>
+    <t>PlayerAtt54</t>
+  </si>
+  <si>
+    <t>PlayerAtt55</t>
+  </si>
+  <si>
+    <t>PlayerAtt56</t>
+  </si>
+  <si>
+    <t>PlayerAtt57</t>
+  </si>
+  <si>
+    <t>PlayerAtt58</t>
+  </si>
+  <si>
+    <t>PlayerAtt59</t>
+  </si>
+  <si>
+    <t>PlayerAtt60</t>
   </si>
 </sst>
 </file>
@@ -622,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -708,7 +879,9 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -720,7 +893,9 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -732,7 +907,9 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -744,7 +921,9 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -756,7 +935,9 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -768,7 +949,9 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -780,7 +963,9 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -792,7 +977,9 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -804,7 +991,9 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -816,7 +1005,9 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -828,7 +1019,9 @@
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -840,7 +1033,9 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
@@ -852,7 +1047,9 @@
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
@@ -864,7 +1061,9 @@
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -876,7 +1075,9 @@
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -888,7 +1089,9 @@
       <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -900,7 +1103,9 @@
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
@@ -912,7 +1117,9 @@
       <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
@@ -924,7 +1131,9 @@
       <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
@@ -936,7 +1145,9 @@
       <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -948,7 +1159,9 @@
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -960,7 +1173,9 @@
       <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
@@ -972,7 +1187,9 @@
       <c r="C27">
         <v>26</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -984,7 +1201,9 @@
       <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -996,7 +1215,9 @@
       <c r="C29">
         <v>28</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1008,7 +1229,9 @@
       <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -1020,7 +1243,9 @@
       <c r="C31">
         <v>30</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1032,7 +1257,9 @@
       <c r="C32">
         <v>31</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -1044,7 +1271,9 @@
       <c r="C33">
         <v>32</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
@@ -1056,7 +1285,9 @@
       <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
@@ -1068,7 +1299,9 @@
       <c r="C35">
         <v>34</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
@@ -1080,7 +1313,9 @@
       <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1092,7 +1327,9 @@
       <c r="C37">
         <v>36</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1104,7 +1341,9 @@
       <c r="C38">
         <v>37</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -1116,7 +1355,9 @@
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1128,7 +1369,9 @@
       <c r="C40">
         <v>39</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -1140,7 +1383,9 @@
       <c r="C41">
         <v>40</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -1152,7 +1397,9 @@
       <c r="C42">
         <v>41</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
@@ -1164,7 +1411,9 @@
       <c r="C43">
         <v>42</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -1176,7 +1425,9 @@
       <c r="C44">
         <v>43</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -1188,7 +1439,9 @@
       <c r="C45">
         <v>44</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
@@ -1200,7 +1453,9 @@
       <c r="C46">
         <v>45</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -1212,7 +1467,9 @@
       <c r="C47">
         <v>46</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -1224,7 +1481,9 @@
       <c r="C48">
         <v>47</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
@@ -1236,7 +1495,9 @@
       <c r="C49">
         <v>48</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -1248,7 +1509,9 @@
       <c r="C50">
         <v>49</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
@@ -1260,7 +1523,9 @@
       <c r="C51">
         <v>50</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
@@ -1272,7 +1537,9 @@
       <c r="C52">
         <v>51</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -1284,7 +1551,9 @@
       <c r="C53">
         <v>52</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
@@ -1296,7 +1565,9 @@
       <c r="C54">
         <v>53</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
@@ -1308,7 +1579,9 @@
       <c r="C55">
         <v>54</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
@@ -1320,7 +1593,9 @@
       <c r="C56">
         <v>55</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
@@ -1332,7 +1607,9 @@
       <c r="C57">
         <v>56</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
@@ -1344,7 +1621,9 @@
       <c r="C58">
         <v>57</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
@@ -1356,7 +1635,9 @@
       <c r="C59">
         <v>58</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
@@ -1368,7 +1649,9 @@
       <c r="C60">
         <v>59</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -1380,7 +1663,9 @@
       <c r="C61">
         <v>60</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/InitProperty.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/InitProperty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -437,12 +437,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,19 +453,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -480,6 +474,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -489,46 +491,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,6 +512,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -564,24 +535,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,12 +550,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -623,13 +632,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,7 +698,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +722,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,85 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,67 +816,127 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -835,23 +958,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,9 +981,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,33 +1009,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,166 +1018,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1404,7 +1524,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1418,1098 +1538,1098 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="b">
+      <c r="B3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="b">
+      <c r="B4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="b">
+      <c r="B5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
         <v>5</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
         <v>6</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
         <v>8</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
         <v>9</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13">
         <v>10</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
         <v>11</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="6">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13">
         <v>12</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="6">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
         <v>13</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
         <v>14</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
         <v>15</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="6">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
         <v>16</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="6">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
         <v>17</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13">
         <v>18</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
         <v>19</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="6">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13">
         <v>20</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="6">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B28" s="13">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13">
         <v>21</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="6">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
         <v>22</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="6">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="13">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13">
         <v>23</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="6">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31" s="13">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13">
         <v>24</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="6">
-        <v>0</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="B32" s="13">
+        <v>0</v>
+      </c>
+      <c r="C32" s="13">
         <v>25</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="6">
-        <v>0</v>
-      </c>
-      <c r="C33" s="6">
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13">
         <v>26</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="6">
-        <v>0</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="B34" s="13">
+        <v>0</v>
+      </c>
+      <c r="C34" s="13">
         <v>27</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="6">
-        <v>0</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13">
         <v>28</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="6">
-        <v>0</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="B36" s="13">
+        <v>0</v>
+      </c>
+      <c r="C36" s="13">
         <v>29</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="6">
-        <v>0</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="B37" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13">
         <v>30</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="6">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="B38" s="13">
+        <v>0</v>
+      </c>
+      <c r="C38" s="13">
         <v>31</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="6">
-        <v>0</v>
-      </c>
-      <c r="C39" s="6">
+      <c r="B39" s="13">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13">
         <v>32</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="6">
-        <v>0</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="B40" s="13">
+        <v>0</v>
+      </c>
+      <c r="C40" s="13">
         <v>33</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="6">
-        <v>0</v>
-      </c>
-      <c r="C41" s="6">
+      <c r="B41" s="13">
+        <v>0</v>
+      </c>
+      <c r="C41" s="13">
         <v>34</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="6">
-        <v>0</v>
-      </c>
-      <c r="C42" s="6">
+      <c r="B42" s="13">
+        <v>0</v>
+      </c>
+      <c r="C42" s="13">
         <v>35</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="6">
-        <v>0</v>
-      </c>
-      <c r="C43" s="6">
+      <c r="B43" s="13">
+        <v>0</v>
+      </c>
+      <c r="C43" s="13">
         <v>36</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="6">
-        <v>0</v>
-      </c>
-      <c r="C44" s="6">
+      <c r="B44" s="13">
+        <v>0</v>
+      </c>
+      <c r="C44" s="13">
         <v>37</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="6">
-        <v>0</v>
-      </c>
-      <c r="C45" s="6">
+      <c r="B45" s="13">
+        <v>0</v>
+      </c>
+      <c r="C45" s="13">
         <v>38</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="6">
-        <v>0</v>
-      </c>
-      <c r="C46" s="6">
+      <c r="B46" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="13">
         <v>39</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="6">
-        <v>0</v>
-      </c>
-      <c r="C47" s="6">
+      <c r="B47" s="13">
+        <v>0</v>
+      </c>
+      <c r="C47" s="13">
         <v>40</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="6">
-        <v>0</v>
-      </c>
-      <c r="C48" s="6">
+      <c r="B48" s="13">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13">
         <v>41</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="6">
-        <v>0</v>
-      </c>
-      <c r="C49" s="6">
+      <c r="B49" s="13">
+        <v>0</v>
+      </c>
+      <c r="C49" s="13">
         <v>42</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="6">
-        <v>0</v>
-      </c>
-      <c r="C50" s="6">
+      <c r="B50" s="13">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13">
         <v>43</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="6">
-        <v>0</v>
-      </c>
-      <c r="C51" s="6">
+      <c r="B51" s="13">
+        <v>0</v>
+      </c>
+      <c r="C51" s="13">
         <v>44</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="6">
-        <v>0</v>
-      </c>
-      <c r="C52" s="6">
+      <c r="B52" s="13">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13">
         <v>45</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="6">
-        <v>0</v>
-      </c>
-      <c r="C53" s="6">
+      <c r="B53" s="13">
+        <v>0</v>
+      </c>
+      <c r="C53" s="13">
         <v>46</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="6">
-        <v>0</v>
-      </c>
-      <c r="C54" s="6">
+      <c r="B54" s="13">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13">
         <v>47</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="6">
-        <v>0</v>
-      </c>
-      <c r="C55" s="6">
+      <c r="B55" s="13">
+        <v>0</v>
+      </c>
+      <c r="C55" s="13">
         <v>48</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="6">
-        <v>0</v>
-      </c>
-      <c r="C56" s="6">
+      <c r="B56" s="13">
+        <v>0</v>
+      </c>
+      <c r="C56" s="13">
         <v>49</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="6">
-        <v>0</v>
-      </c>
-      <c r="C57" s="6">
+      <c r="B57" s="13">
+        <v>0</v>
+      </c>
+      <c r="C57" s="13">
         <v>50</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="6">
-        <v>0</v>
-      </c>
-      <c r="C58" s="6">
+      <c r="B58" s="13">
+        <v>0</v>
+      </c>
+      <c r="C58" s="13">
         <v>51</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="6">
-        <v>0</v>
-      </c>
-      <c r="C59" s="6">
+      <c r="B59" s="13">
+        <v>0</v>
+      </c>
+      <c r="C59" s="13">
         <v>52</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="6">
-        <v>0</v>
-      </c>
-      <c r="C60" s="6">
+      <c r="B60" s="13">
+        <v>0</v>
+      </c>
+      <c r="C60" s="13">
         <v>53</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="6">
-        <v>0</v>
-      </c>
-      <c r="C61" s="6">
+      <c r="B61" s="13">
+        <v>0</v>
+      </c>
+      <c r="C61" s="13">
         <v>54</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="6">
-        <v>0</v>
-      </c>
-      <c r="C62" s="6">
+      <c r="B62" s="13">
+        <v>0</v>
+      </c>
+      <c r="C62" s="13">
         <v>55</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="6">
-        <v>0</v>
-      </c>
-      <c r="C63" s="6">
+      <c r="B63" s="13">
+        <v>0</v>
+      </c>
+      <c r="C63" s="13">
         <v>56</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="6">
-        <v>0</v>
-      </c>
-      <c r="C64" s="6">
+      <c r="B64" s="13">
+        <v>0</v>
+      </c>
+      <c r="C64" s="13">
         <v>57</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="6">
-        <v>0</v>
-      </c>
-      <c r="C65" s="6">
+      <c r="B65" s="13">
+        <v>0</v>
+      </c>
+      <c r="C65" s="13">
         <v>58</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="6">
-        <v>0</v>
-      </c>
-      <c r="C66" s="6">
+      <c r="B66" s="13">
+        <v>0</v>
+      </c>
+      <c r="C66" s="13">
         <v>59</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="6">
-        <v>0</v>
-      </c>
-      <c r="C67" s="6">
+      <c r="B67" s="13">
+        <v>0</v>
+      </c>
+      <c r="C67" s="13">
         <v>60</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/InitProperty.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/InitProperty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="16440" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -437,12 +437,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,11 +459,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,6 +484,43 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,8 +532,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,21 +571,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -520,23 +579,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,64 +597,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -632,25 +624,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,120 +786,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -788,31 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,21 +918,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -959,32 +936,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1013,36 +964,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1051,119 +1043,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1176,28 +1168,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1523,8 +1509,8 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A1:$XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1581,19 +1567,19 @@
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="b">
+      <c r="B3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="b">
+      <c r="C3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="b">
+      <c r="D3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="8" t="b">
+      <c r="E3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="b">
+      <c r="F3" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1601,19 +1587,19 @@
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="b">
+      <c r="B4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="b">
+      <c r="C4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="b">
+      <c r="D4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="8" t="b">
+      <c r="E4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="b">
+      <c r="F4" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1621,19 +1607,19 @@
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="b">
+      <c r="B5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="b">
+      <c r="C5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="8" t="b">
+      <c r="D5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="8" t="b">
+      <c r="E5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="b">
+      <c r="F5" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1641,995 +1627,995 @@
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="b">
+      <c r="B6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="b">
+      <c r="C6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="b">
+      <c r="D6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="8" t="b">
+      <c r="E6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="b">
+      <c r="F6" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
         <v>3</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
         <v>5</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11">
         <v>6</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
         <v>7</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
         <v>8</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="11">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11">
         <v>9</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
         <v>10</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
         <v>11</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="13">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
         <v>12</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
         <v>13</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
         <v>14</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11">
         <v>15</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="13">
-        <v>0</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11">
         <v>16</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="13">
-        <v>0</v>
-      </c>
-      <c r="C24" s="13">
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11">
         <v>17</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="13">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
         <v>18</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="13">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13">
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
         <v>19</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="13">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13">
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
         <v>20</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="13">
-        <v>0</v>
-      </c>
-      <c r="C28" s="13">
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11">
         <v>21</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13">
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11">
         <v>22</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="13">
-        <v>0</v>
-      </c>
-      <c r="C30" s="13">
+      <c r="B30" s="11">
+        <v>1</v>
+      </c>
+      <c r="C30" s="11">
         <v>23</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="13">
-        <v>0</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11">
         <v>24</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="13">
-        <v>0</v>
-      </c>
-      <c r="C32" s="13">
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11">
         <v>25</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="13">
-        <v>0</v>
-      </c>
-      <c r="C33" s="13">
+      <c r="B33" s="11">
+        <v>1</v>
+      </c>
+      <c r="C33" s="11">
         <v>26</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="13">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13">
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11">
         <v>27</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="13">
-        <v>0</v>
-      </c>
-      <c r="C35" s="13">
+      <c r="B35" s="11">
+        <v>1</v>
+      </c>
+      <c r="C35" s="11">
         <v>28</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="13">
-        <v>0</v>
-      </c>
-      <c r="C36" s="13">
+      <c r="B36" s="11">
+        <v>1</v>
+      </c>
+      <c r="C36" s="11">
         <v>29</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="13">
-        <v>0</v>
-      </c>
-      <c r="C37" s="13">
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+      <c r="C37" s="11">
         <v>30</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="13">
-        <v>0</v>
-      </c>
-      <c r="C38" s="13">
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11">
         <v>31</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="13">
-        <v>0</v>
-      </c>
-      <c r="C39" s="13">
+      <c r="B39" s="11">
+        <v>1</v>
+      </c>
+      <c r="C39" s="11">
         <v>32</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="13">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13">
+      <c r="B40" s="11">
+        <v>1</v>
+      </c>
+      <c r="C40" s="11">
         <v>33</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="13">
-        <v>0</v>
-      </c>
-      <c r="C41" s="13">
+      <c r="B41" s="11">
+        <v>1</v>
+      </c>
+      <c r="C41" s="11">
         <v>34</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="13">
-        <v>0</v>
-      </c>
-      <c r="C42" s="13">
+      <c r="B42" s="11">
+        <v>1</v>
+      </c>
+      <c r="C42" s="11">
         <v>35</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="13">
-        <v>0</v>
-      </c>
-      <c r="C43" s="13">
+      <c r="B43" s="11">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11">
         <v>36</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="13">
-        <v>0</v>
-      </c>
-      <c r="C44" s="13">
+      <c r="B44" s="11">
+        <v>1</v>
+      </c>
+      <c r="C44" s="11">
         <v>37</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="13">
-        <v>0</v>
-      </c>
-      <c r="C45" s="13">
+      <c r="B45" s="11">
+        <v>1</v>
+      </c>
+      <c r="C45" s="11">
         <v>38</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="13">
-        <v>0</v>
-      </c>
-      <c r="C46" s="13">
+      <c r="B46" s="11">
+        <v>1</v>
+      </c>
+      <c r="C46" s="11">
         <v>39</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="13">
-        <v>0</v>
-      </c>
-      <c r="C47" s="13">
+      <c r="B47" s="11">
+        <v>1</v>
+      </c>
+      <c r="C47" s="11">
         <v>40</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="13">
-        <v>0</v>
-      </c>
-      <c r="C48" s="13">
+      <c r="B48" s="11">
+        <v>1</v>
+      </c>
+      <c r="C48" s="11">
         <v>41</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="13">
-        <v>0</v>
-      </c>
-      <c r="C49" s="13">
+      <c r="B49" s="11">
+        <v>1</v>
+      </c>
+      <c r="C49" s="11">
         <v>42</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="13">
-        <v>0</v>
-      </c>
-      <c r="C50" s="13">
+      <c r="B50" s="11">
+        <v>1</v>
+      </c>
+      <c r="C50" s="11">
         <v>43</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="13">
-        <v>0</v>
-      </c>
-      <c r="C51" s="13">
+      <c r="B51" s="11">
+        <v>1</v>
+      </c>
+      <c r="C51" s="11">
         <v>44</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="13">
-        <v>0</v>
-      </c>
-      <c r="C52" s="13">
+      <c r="B52" s="11">
+        <v>1</v>
+      </c>
+      <c r="C52" s="11">
         <v>45</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="13">
-        <v>0</v>
-      </c>
-      <c r="C53" s="13">
+      <c r="B53" s="11">
+        <v>1</v>
+      </c>
+      <c r="C53" s="11">
         <v>46</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="13">
-        <v>0</v>
-      </c>
-      <c r="C54" s="13">
+      <c r="B54" s="11">
+        <v>1</v>
+      </c>
+      <c r="C54" s="11">
         <v>47</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="13">
-        <v>0</v>
-      </c>
-      <c r="C55" s="13">
+      <c r="B55" s="11">
+        <v>1</v>
+      </c>
+      <c r="C55" s="11">
         <v>48</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="13">
-        <v>0</v>
-      </c>
-      <c r="C56" s="13">
+      <c r="B56" s="11">
+        <v>1</v>
+      </c>
+      <c r="C56" s="11">
         <v>49</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="13">
-        <v>0</v>
-      </c>
-      <c r="C57" s="13">
+      <c r="B57" s="11">
+        <v>1</v>
+      </c>
+      <c r="C57" s="11">
         <v>50</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="13">
-        <v>0</v>
-      </c>
-      <c r="C58" s="13">
+      <c r="B58" s="11">
+        <v>1</v>
+      </c>
+      <c r="C58" s="11">
         <v>51</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="13">
-        <v>0</v>
-      </c>
-      <c r="C59" s="13">
+      <c r="B59" s="11">
+        <v>1</v>
+      </c>
+      <c r="C59" s="11">
         <v>52</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="13">
-        <v>0</v>
-      </c>
-      <c r="C60" s="13">
+      <c r="B60" s="11">
+        <v>1</v>
+      </c>
+      <c r="C60" s="11">
         <v>53</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="13">
-        <v>0</v>
-      </c>
-      <c r="C61" s="13">
+      <c r="B61" s="11">
+        <v>1</v>
+      </c>
+      <c r="C61" s="11">
         <v>54</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="13">
-        <v>0</v>
-      </c>
-      <c r="C62" s="13">
+      <c r="B62" s="11">
+        <v>1</v>
+      </c>
+      <c r="C62" s="11">
         <v>55</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="13">
-        <v>0</v>
-      </c>
-      <c r="C63" s="13">
+      <c r="B63" s="11">
+        <v>1</v>
+      </c>
+      <c r="C63" s="11">
         <v>56</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="13">
-        <v>0</v>
-      </c>
-      <c r="C64" s="13">
+      <c r="B64" s="11">
+        <v>1</v>
+      </c>
+      <c r="C64" s="11">
         <v>57</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="13">
-        <v>0</v>
-      </c>
-      <c r="C65" s="13">
+      <c r="B65" s="11">
+        <v>1</v>
+      </c>
+      <c r="C65" s="11">
         <v>58</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="13">
-        <v>0</v>
-      </c>
-      <c r="C66" s="13">
+      <c r="B66" s="11">
+        <v>1</v>
+      </c>
+      <c r="C66" s="11">
         <v>59</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="13">
-        <v>0</v>
-      </c>
-      <c r="C67" s="13">
+      <c r="B67" s="11">
+        <v>1</v>
+      </c>
+      <c r="C67" s="11">
         <v>60</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/InitProperty.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/InitProperty.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="InitProperty" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\InitProperty.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="InitProperty" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\InitProperty.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="137">
   <si>
     <t>Id</t>
   </si>
@@ -438,18 +451,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -457,7 +464,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -468,152 +475,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,194 +495,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -943,251 +620,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1235,58 +670,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1547,25 +940,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1605,7 +998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1625,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1645,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1665,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1685,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:6">
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1705,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:6">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1719,7 +1112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1735,7 +1128,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
@@ -1751,7 +1144,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
@@ -1767,7 +1160,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1783,7 +1176,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
@@ -1799,7 +1192,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>27</v>
       </c>
@@ -1815,7 +1208,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
@@ -1831,7 +1224,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -1847,7 +1240,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
@@ -1863,7 +1256,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>35</v>
       </c>
@@ -1879,7 +1272,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>37</v>
       </c>
@@ -1895,7 +1288,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -1911,7 +1304,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
@@ -1927,7 +1320,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1943,7 +1336,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>45</v>
       </c>
@@ -1959,7 +1352,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>47</v>
       </c>
@@ -1975,7 +1368,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>49</v>
       </c>
@@ -1991,7 +1384,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>51</v>
       </c>
@@ -2007,7 +1400,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>53</v>
       </c>
@@ -2023,7 +1416,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>55</v>
       </c>
@@ -2039,7 +1432,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>57</v>
       </c>
@@ -2055,7 +1448,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>59</v>
       </c>
@@ -2071,7 +1464,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>61</v>
       </c>
@@ -2087,7 +1480,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>63</v>
       </c>
@@ -2103,7 +1496,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>65</v>
       </c>
@@ -2119,7 +1512,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>67</v>
       </c>
@@ -2135,7 +1528,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>69</v>
       </c>
@@ -2151,7 +1544,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>71</v>
       </c>
@@ -2167,7 +1560,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>73</v>
       </c>
@@ -2183,7 +1576,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>75</v>
       </c>
@@ -2199,7 +1592,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>77</v>
       </c>
@@ -2215,7 +1608,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>79</v>
       </c>
@@ -2231,7 +1624,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>81</v>
       </c>
@@ -2247,7 +1640,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>83</v>
       </c>
@@ -2263,7 +1656,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>85</v>
       </c>
@@ -2279,7 +1672,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>87</v>
       </c>
@@ -2295,7 +1688,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>89</v>
       </c>
@@ -2311,7 +1704,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>91</v>
       </c>
@@ -2327,7 +1720,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>93</v>
       </c>
@@ -2343,7 +1736,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>95</v>
       </c>
@@ -2359,7 +1752,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>97</v>
       </c>
@@ -2375,7 +1768,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>99</v>
       </c>
@@ -2391,7 +1784,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>101</v>
       </c>
@@ -2407,7 +1800,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>103</v>
       </c>
@@ -2423,7 +1816,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>105</v>
       </c>
@@ -2439,7 +1832,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>107</v>
       </c>
@@ -2455,7 +1848,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>109</v>
       </c>
@@ -2471,7 +1864,7 @@
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>111</v>
       </c>
@@ -2487,7 +1880,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>113</v>
       </c>
@@ -2503,7 +1896,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>115</v>
       </c>
@@ -2519,7 +1912,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>117</v>
       </c>
@@ -2535,7 +1928,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>119</v>
       </c>
@@ -2551,7 +1944,7 @@
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>121</v>
       </c>
@@ -2567,7 +1960,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>123</v>
       </c>
@@ -2583,7 +1976,7 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>125</v>
       </c>
@@ -2599,7 +1992,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>127</v>
       </c>
@@ -2615,7 +2008,7 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>129</v>
       </c>
@@ -2631,7 +2024,7 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>131</v>
       </c>
@@ -2647,7 +2040,7 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>133</v>
       </c>
@@ -2663,7 +2056,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>135</v>
       </c>
@@ -2686,7 +2079,6 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/InitProperty.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/InitProperty.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="138">
   <si>
     <t>Id</t>
   </si>
@@ -446,17 +446,21 @@
   </si>
   <si>
     <t>PlayerAtt60</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -464,8 +468,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,6 +478,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -671,13 +681,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -941,24 +954,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -978,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -998,7 +1011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1018,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1038,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1058,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1078,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1098,984 +1111,1005 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="13">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
       </c>
       <c r="C11" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
       </c>
       <c r="C12" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="13">
         <v>1</v>
       </c>
       <c r="C13" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="13">
         <v>1</v>
       </c>
       <c r="C14" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
       </c>
       <c r="C15" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="13">
         <v>1</v>
       </c>
       <c r="C16" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="13">
         <v>1</v>
       </c>
       <c r="C17" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="13">
         <v>1</v>
       </c>
       <c r="C18" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="13">
         <v>1</v>
       </c>
       <c r="C19" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="13">
         <v>1</v>
       </c>
       <c r="C20" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="13">
         <v>1</v>
       </c>
       <c r="C21" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="13">
         <v>1</v>
       </c>
       <c r="C22" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="13">
         <v>1</v>
       </c>
       <c r="C23" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="13">
         <v>1</v>
       </c>
       <c r="C24" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="13">
         <v>1</v>
       </c>
       <c r="C25" s="13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="13">
         <v>1</v>
       </c>
       <c r="C26" s="13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="13">
         <v>1</v>
       </c>
       <c r="C27" s="13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="13">
         <v>1</v>
       </c>
       <c r="C28" s="13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="13">
         <v>1</v>
       </c>
       <c r="C29" s="13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="13">
         <v>1</v>
       </c>
       <c r="C30" s="13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="13">
         <v>1</v>
       </c>
       <c r="C31" s="13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="13">
         <v>1</v>
       </c>
       <c r="C32" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="13">
         <v>1</v>
       </c>
       <c r="C33" s="13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" s="13">
         <v>1</v>
       </c>
       <c r="C34" s="13">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="13">
         <v>1</v>
       </c>
       <c r="C35" s="13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="13">
         <v>1</v>
       </c>
       <c r="C36" s="13">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="13">
         <v>1</v>
       </c>
       <c r="C37" s="13">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38" s="13">
         <v>1</v>
       </c>
       <c r="C38" s="13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" s="13">
         <v>1</v>
       </c>
       <c r="C39" s="13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B40" s="13">
         <v>1</v>
       </c>
       <c r="C40" s="13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" s="13">
         <v>1</v>
       </c>
       <c r="C41" s="13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B42" s="13">
         <v>1</v>
       </c>
       <c r="C42" s="13">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43" s="13">
         <v>1</v>
       </c>
       <c r="C43" s="13">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" s="13">
         <v>1</v>
       </c>
       <c r="C44" s="13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="13">
         <v>1</v>
       </c>
       <c r="C45" s="13">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B46" s="13">
         <v>1</v>
       </c>
       <c r="C46" s="13">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" s="13">
         <v>1</v>
       </c>
       <c r="C47" s="13">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B48" s="13">
         <v>1</v>
       </c>
       <c r="C48" s="13">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B49" s="13">
         <v>1</v>
       </c>
       <c r="C49" s="13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" s="13">
         <v>1</v>
       </c>
       <c r="C50" s="13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B51" s="13">
         <v>1</v>
       </c>
       <c r="C51" s="13">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B52" s="13">
         <v>1</v>
       </c>
       <c r="C52" s="13">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B53" s="13">
         <v>1</v>
       </c>
       <c r="C53" s="13">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="13">
         <v>1</v>
       </c>
       <c r="C54" s="13">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="13">
         <v>1</v>
       </c>
       <c r="C55" s="13">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="13">
         <v>1</v>
       </c>
       <c r="C56" s="13">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="13">
         <v>1</v>
       </c>
       <c r="C57" s="13">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B58" s="13">
         <v>1</v>
       </c>
       <c r="C58" s="13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" s="13">
         <v>1</v>
       </c>
       <c r="C59" s="13">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B60" s="13">
         <v>1</v>
       </c>
       <c r="C60" s="13">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B61" s="13">
         <v>1</v>
       </c>
       <c r="C61" s="13">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B62" s="13">
         <v>1</v>
       </c>
       <c r="C62" s="13">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B63" s="13">
         <v>1</v>
       </c>
       <c r="C63" s="13">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B64" s="13">
         <v>1</v>
       </c>
       <c r="C64" s="13">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B65" s="13">
         <v>1</v>
       </c>
       <c r="C65" s="13">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B66" s="13">
         <v>1</v>
       </c>
       <c r="C66" s="13">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B67" s="13">
         <v>1</v>
       </c>
       <c r="C67" s="13">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B68" s="13">
         <v>1</v>
       </c>
       <c r="C68" s="13">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
     </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="13">
+        <v>1</v>
+      </c>
+      <c r="C69" s="13">
+        <v>60</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
